--- a/teaching/traditional_assets/database/data/malaysia/malaysia_reinsurance.xlsx
+++ b/teaching/traditional_assets/database/data/malaysia/malaysia_reinsurance.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.00781</v>
+        <v>0.0115</v>
       </c>
       <c r="E2">
-        <v>-0.0218</v>
+        <v>0.328</v>
       </c>
       <c r="G2">
-        <v>0.08104170460753961</v>
+        <v>0.08257372654155497</v>
       </c>
       <c r="H2">
-        <v>0.08104170460753961</v>
+        <v>0.08257372654155497</v>
       </c>
       <c r="I2">
-        <v>0.09587404784910464</v>
+        <v>0.08150134048257372</v>
       </c>
       <c r="J2">
-        <v>0.0730265576044405</v>
+        <v>0.0671587026231404</v>
       </c>
       <c r="K2">
-        <v>34.1</v>
+        <v>33.6</v>
       </c>
       <c r="L2">
-        <v>0.06210162083409215</v>
+        <v>0.06005361930294906</v>
       </c>
       <c r="M2">
-        <v>4.6026</v>
+        <v>0.717</v>
       </c>
       <c r="N2">
-        <v>0.02193803622497617</v>
+        <v>0.003773684210526316</v>
       </c>
       <c r="O2">
-        <v>0.1349736070381232</v>
+        <v>0.02133928571428571</v>
       </c>
       <c r="P2">
-        <v>4.6026</v>
+        <v>0.717</v>
       </c>
       <c r="Q2">
-        <v>0.02193803622497617</v>
+        <v>0.003773684210526316</v>
       </c>
       <c r="R2">
-        <v>0.1349736070381232</v>
+        <v>0.02133928571428571</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="V2">
-        <v>0.09532888465204957</v>
+        <v>0.1042105263157895</v>
       </c>
       <c r="W2">
-        <v>0.08585095669687816</v>
+        <v>0.06305122912366298</v>
       </c>
       <c r="X2">
-        <v>0.09448030239681705</v>
+        <v>0.1060154029432995</v>
       </c>
       <c r="Y2">
-        <v>-0.008629345699938895</v>
+        <v>-0.04296417381963656</v>
       </c>
       <c r="Z2">
-        <v>1.217657560398062</v>
+        <v>0.9478231407758767</v>
       </c>
       <c r="AA2">
-        <v>0.08892133997689158</v>
+        <v>0.06365457245069805</v>
       </c>
       <c r="AB2">
-        <v>0.0780083294831421</v>
+        <v>0.08315029335186631</v>
       </c>
       <c r="AC2">
-        <v>0.01091301049374949</v>
+        <v>-0.01949572090116826</v>
       </c>
       <c r="AD2">
-        <v>77.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="AE2">
-        <v>0.4478016302832168</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>77.84780163028323</v>
+        <v>78.3</v>
       </c>
       <c r="AG2">
-        <v>57.84780163028323</v>
+        <v>58.5</v>
       </c>
       <c r="AH2">
-        <v>0.2706358303073069</v>
+        <v>0.2918374953410361</v>
       </c>
       <c r="AI2">
-        <v>0.1274630893840015</v>
+        <v>0.1187263078089462</v>
       </c>
       <c r="AJ2">
-        <v>0.2161340436122528</v>
+        <v>0.2354124748490946</v>
       </c>
       <c r="AK2">
-        <v>0.09792300787348</v>
+        <v>0.09144911677348756</v>
       </c>
       <c r="AL2">
-        <v>4</v>
+        <v>4.03</v>
       </c>
       <c r="AM2">
-        <v>4</v>
+        <v>4.03</v>
       </c>
       <c r="AN2">
-        <v>1.411532990480359</v>
+        <v>1.673076923076923</v>
       </c>
       <c r="AO2">
-        <v>13.125</v>
+        <v>11.3151364764268</v>
       </c>
       <c r="AP2">
-        <v>1.054962279430339</v>
+        <v>1.25</v>
       </c>
       <c r="AQ2">
-        <v>13.125</v>
+        <v>11.3151364764268</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.00781</v>
+        <v>0.0115</v>
       </c>
       <c r="E3">
-        <v>-0.0218</v>
+        <v>0.328</v>
       </c>
       <c r="G3">
-        <v>0.08104170460753961</v>
+        <v>0.08257372654155497</v>
       </c>
       <c r="H3">
-        <v>0.08104170460753961</v>
+        <v>0.08257372654155497</v>
       </c>
       <c r="I3">
-        <v>0.09587404784910464</v>
+        <v>0.08150134048257372</v>
       </c>
       <c r="J3">
-        <v>0.0730265576044405</v>
+        <v>0.0671587026231404</v>
       </c>
       <c r="K3">
-        <v>34.1</v>
+        <v>33.6</v>
       </c>
       <c r="L3">
-        <v>0.06210162083409215</v>
+        <v>0.06005361930294906</v>
       </c>
       <c r="M3">
-        <v>4.6026</v>
+        <v>0.717</v>
       </c>
       <c r="N3">
-        <v>0.02193803622497617</v>
+        <v>0.003773684210526316</v>
       </c>
       <c r="O3">
-        <v>0.1349736070381232</v>
+        <v>0.02133928571428571</v>
       </c>
       <c r="P3">
-        <v>4.6026</v>
+        <v>0.717</v>
       </c>
       <c r="Q3">
-        <v>0.02193803622497617</v>
+        <v>0.003773684210526316</v>
       </c>
       <c r="R3">
-        <v>0.1349736070381232</v>
+        <v>0.02133928571428571</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="V3">
-        <v>0.09532888465204957</v>
+        <v>0.1042105263157895</v>
       </c>
       <c r="W3">
-        <v>0.08585095669687816</v>
+        <v>0.06305122912366298</v>
       </c>
       <c r="X3">
-        <v>0.09448030239681705</v>
+        <v>0.1060154029432995</v>
       </c>
       <c r="Y3">
-        <v>-0.008629345699938895</v>
+        <v>-0.04296417381963656</v>
       </c>
       <c r="Z3">
-        <v>1.217657560398062</v>
+        <v>0.9478231407758767</v>
       </c>
       <c r="AA3">
-        <v>0.08892133997689158</v>
+        <v>0.06365457245069805</v>
       </c>
       <c r="AB3">
-        <v>0.0780083294831421</v>
+        <v>0.08315029335186631</v>
       </c>
       <c r="AC3">
-        <v>0.01091301049374949</v>
+        <v>-0.01949572090116826</v>
       </c>
       <c r="AD3">
-        <v>77.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="AE3">
-        <v>0.4478016302832168</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>77.84780163028323</v>
+        <v>78.3</v>
       </c>
       <c r="AG3">
-        <v>57.84780163028323</v>
+        <v>58.5</v>
       </c>
       <c r="AH3">
-        <v>0.2706358303073069</v>
+        <v>0.2918374953410361</v>
       </c>
       <c r="AI3">
-        <v>0.1274630893840015</v>
+        <v>0.1187263078089462</v>
       </c>
       <c r="AJ3">
-        <v>0.2161340436122528</v>
+        <v>0.2354124748490946</v>
       </c>
       <c r="AK3">
-        <v>0.09792300787348</v>
+        <v>0.09144911677348756</v>
       </c>
       <c r="AL3">
-        <v>4</v>
+        <v>4.03</v>
       </c>
       <c r="AM3">
-        <v>4</v>
+        <v>4.03</v>
       </c>
       <c r="AN3">
-        <v>1.411532990480359</v>
+        <v>1.673076923076923</v>
       </c>
       <c r="AO3">
-        <v>13.125</v>
+        <v>11.3151364764268</v>
       </c>
       <c r="AP3">
-        <v>1.054962279430339</v>
+        <v>1.25</v>
       </c>
       <c r="AQ3">
-        <v>13.125</v>
+        <v>11.3151364764268</v>
       </c>
     </row>
   </sheetData>
